--- a/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/ItemConfig.xlsx
+++ b/LLAFramework/Assets/ReunionMovement/ExcelTool/Editor/Resources/ExcelTools/ItemConfig.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>索引</t>
   </si>
@@ -766,10 +766,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1083,13 +1083,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="1" customWidth="1"/>
@@ -1137,7 +1137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1167,9 +1167,6 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1202,6 +1199,38 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
